--- a/test/GeoB3938.xlsx
+++ b/test/GeoB3938.xlsx
@@ -31,6 +31,7 @@
     <sheet name="Serie Id-F461FF12" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Serie Id-D7EB23CF" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="FILTER Id-F7B6A5AE" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="FILTER Id-3799780A" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +451,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Created with PyAnalyseries v5.1</t>
+          <t>Created with PyAnalyseries v5.11</t>
         </is>
       </c>
     </row>
@@ -31728,7 +31729,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#2ba7fa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -74363,6 +74364,82 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>filter as a moving average of size 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="69" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FILTER</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Moving average 9 pts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;BR&gt;Filter with parameters :&lt;ul&gt;&lt;li&gt;Moving average size : 9&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
